--- a/product_ranking_individual_eyelash_extension.xlsx
+++ b/product_ranking_individual_eyelash_extension.xlsx
@@ -19,9 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="148">
-  <si>
-    <t>2018-10-09 17:04:33</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="151">
+  <si>
+    <t>2018-10-09 17:29:02</t>
   </si>
   <si>
     <t>2018-10-09 16:36:23</t>
@@ -72,120 +72,129 @@
     <t>Wholesale PBT Fiber Silk Private Label Premium Individual Korean Silk Premium Synthetic Eyelash Extension</t>
   </si>
   <si>
+    <t>eyelash extension faux mink silk</t>
+  </si>
+  <si>
+    <t>eyelash extension professional</t>
+  </si>
+  <si>
+    <t>individual eyelash extension silk private label</t>
+  </si>
+  <si>
+    <t>individual lash eyelash extension private label</t>
+  </si>
+  <si>
+    <t>individual lash eyelash extension supplies private label</t>
+  </si>
+  <si>
+    <t>individual lash eyelash extension private label supplies</t>
+  </si>
+  <si>
+    <t>individual lash eyelash extension supplies private label professional</t>
+  </si>
+  <si>
+    <t>individual lash eyelash extension supplies silk private label professional lash</t>
+  </si>
+  <si>
+    <t>eyelash extension lash professional salon use wholesale</t>
+  </si>
+  <si>
+    <t>silk individual false eye lash extension eyelash lash</t>
+  </si>
+  <si>
+    <t>extension lash</t>
+  </si>
+  <si>
+    <t>wholesale lash eyelash extension silk faux mink individual lash primer supplies</t>
+  </si>
+  <si>
+    <t>wholesale lash eyelash extension faux mink individual silk lash primer</t>
+  </si>
+  <si>
+    <t>wholesale lash eyelash extension primer individual lash silk</t>
+  </si>
+  <si>
+    <t>wholesale lash eyelash extension faux mink individual lash primer</t>
+  </si>
+  <si>
+    <t>lash eyelash extension faux mink individual lash primer wholesale</t>
+  </si>
+  <si>
+    <t>individual eyelash extension private label</t>
+  </si>
+  <si>
+    <t>private label lash eyelash extension supplies</t>
+  </si>
+  <si>
+    <t>eyelash extension supplies</t>
+  </si>
+  <si>
+    <t>individual eye lash extension lash eyelash extention</t>
+  </si>
+  <si>
+    <t>individual eye lash extension eyelash extention lash</t>
+  </si>
+  <si>
+    <t>individual eye lash extension wholesale eyelash extention lash silk</t>
+  </si>
+  <si>
+    <t>individual eye lash extension supplies eyelash extention lash silk</t>
+  </si>
+  <si>
+    <t>individual lash eyelash extention extension lash silk</t>
+  </si>
+  <si>
+    <t>lash eyelash extention</t>
+  </si>
+  <si>
+    <t>supply eyelash extension silk</t>
+  </si>
+  <si>
+    <t>eyelash extension</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>private label eyelash extension</t>
+  </si>
+  <si>
+    <t>3-12</t>
+  </si>
+  <si>
+    <t>3-13</t>
+  </si>
+  <si>
+    <t>1-28</t>
+  </si>
+  <si>
+    <t>2-12</t>
+  </si>
+  <si>
+    <t>1-27</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1-36</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>12-23</t>
+  </si>
+  <si>
     <t>eyelash extension silk</t>
   </si>
   <si>
-    <t>eyelash extension professional</t>
-  </si>
-  <si>
-    <t>individual eyelash extension silk private label</t>
-  </si>
-  <si>
-    <t>individual lash eyelash extension private label</t>
-  </si>
-  <si>
-    <t>individual lash eyelash extension supplies private label</t>
-  </si>
-  <si>
-    <t>individual lash eyelash extension private label supplies</t>
-  </si>
-  <si>
-    <t>individual lash eyelash extension supplies private label professional</t>
-  </si>
-  <si>
-    <t>individual lash eyelash extension supplies silk private label professional lash</t>
-  </si>
-  <si>
-    <t>eyelash extension lash professional salon use wholesale</t>
-  </si>
-  <si>
-    <t>extension lash</t>
-  </si>
-  <si>
-    <t>wholesale lash eyelash extension silk faux mink individual lash primer supplies</t>
-  </si>
-  <si>
-    <t>wholesale lash eyelash extension faux mink individual silk lash primer</t>
-  </si>
-  <si>
-    <t>wholesale lash eyelash extension primer individual lash silk</t>
-  </si>
-  <si>
-    <t>wholesale lash eyelash extension faux mink individual lash primer</t>
-  </si>
-  <si>
-    <t>lash eyelash extension faux mink individual lash primer wholesale</t>
-  </si>
-  <si>
-    <t>individual eyelash extension private label</t>
-  </si>
-  <si>
-    <t>eyelash extension supplies</t>
-  </si>
-  <si>
-    <t>individual eye lash extension lash eyelash extention</t>
-  </si>
-  <si>
-    <t>individual eye lash extension eyelash extention lash</t>
-  </si>
-  <si>
-    <t>individual eye lash extension wholesale eyelash extention lash silk</t>
-  </si>
-  <si>
-    <t>individual eye lash extension supplies eyelash extention lash silk</t>
-  </si>
-  <si>
-    <t>individual lash eyelash extention extension lash silk</t>
-  </si>
-  <si>
-    <t>lash eyelash extention</t>
-  </si>
-  <si>
-    <t>supply eyelash extension silk</t>
-  </si>
-  <si>
-    <t>eyelash extension</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>private label eyelash extension</t>
-  </si>
-  <si>
-    <t>3-12</t>
-  </si>
-  <si>
-    <t>3-13</t>
-  </si>
-  <si>
-    <t>1-28</t>
-  </si>
-  <si>
-    <t>2-12</t>
-  </si>
-  <si>
-    <t>1-27</t>
-  </si>
-  <si>
-    <t>2-11</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>1-36</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>12-23</t>
-  </si>
-  <si>
     <t>2-5</t>
   </si>
   <si>
@@ -273,6 +282,9 @@
     <t>eyelash extension lash</t>
   </si>
   <si>
+    <t>16-30</t>
+  </si>
+  <si>
     <t>16-33</t>
   </si>
   <si>
@@ -342,6 +354,9 @@
     <t>silk individual lash</t>
   </si>
   <si>
+    <t>12-13</t>
+  </si>
+  <si>
     <t>2-14</t>
   </si>
   <si>
@@ -414,6 +429,9 @@
     <t>eyelash extension faux mink</t>
   </si>
   <si>
+    <t>5-31</t>
+  </si>
+  <si>
     <t>5-29</t>
   </si>
   <si>
@@ -454,18 +472,6 @@
   </si>
   <si>
     <t>wholesale lash extension</t>
-  </si>
-  <si>
-    <t>eyelash extension faux mink silk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>silk individual false eye lash extension eyelash lash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>private label lash eyelash extension supplies</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -964,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1131,7 @@
       <c r="C4" s="28"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>145</v>
+        <v>17</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>18</v>
@@ -1170,37 +1176,37 @@
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="E5" s="19" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="K5" s="19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
@@ -1215,37 +1221,37 @@
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="E6" s="19" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
@@ -1266,45 +1272,47 @@
         <v>3091</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M7" s="34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>44</v>
+      </c>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="12"/>
@@ -1323,45 +1331,47 @@
         <v>489</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="12"/>
@@ -1383,42 +1393,44 @@
         <v>18</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="Q9" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="12"/>
@@ -1437,45 +1449,47 @@
         <v>451</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>53</v>
+      </c>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="12"/>
@@ -1494,45 +1508,47 @@
         <v>395</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M11" s="34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q11" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>58</v>
+      </c>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="12"/>
@@ -1551,45 +1567,47 @@
         <v>368</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="11"/>
+        <v>62</v>
+      </c>
+      <c r="Q12" s="36" t="s">
+        <v>62</v>
+      </c>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="12"/>
@@ -1608,45 +1626,47 @@
         <v>361</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M13" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="Q13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="O13" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="12"/>
@@ -1665,45 +1685,47 @@
         <v>326</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M14" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P14" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="Q14" s="36" t="s">
+        <v>68</v>
+      </c>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="12"/>
@@ -1722,45 +1744,47 @@
         <v>322</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M15" s="34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P15" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="Q15" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="12"/>
@@ -1779,45 +1803,47 @@
         <v>310</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P16" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q16" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q16" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="12"/>
@@ -1836,45 +1862,47 @@
         <v>280</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P17" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>78</v>
+      </c>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="12"/>
@@ -1893,45 +1921,47 @@
         <v>263</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="P18" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="11"/>
+        <v>81</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>81</v>
+      </c>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="12"/>
@@ -1950,45 +1980,47 @@
         <v>253</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M19" s="34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q19" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q19" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="12"/>
@@ -2007,45 +2039,47 @@
         <v>247</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>87</v>
+      </c>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="12"/>
@@ -2064,45 +2098,47 @@
         <v>233</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q21" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q21" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="12"/>
@@ -2121,45 +2157,47 @@
         <v>231</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q22" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>96</v>
+      </c>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="12"/>
@@ -2178,45 +2216,47 @@
         <v>224</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K23" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="Q23" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="M23" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="O23" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="P23" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="12"/>
@@ -2235,45 +2275,47 @@
         <v>205</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M24" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P24" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q24" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q24" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="12"/>
@@ -2292,45 +2334,47 @@
         <v>202</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M25" s="34" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P25" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q25" s="11"/>
+        <v>107</v>
+      </c>
+      <c r="Q25" s="36" t="s">
+        <v>107</v>
+      </c>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="12"/>
@@ -2349,45 +2393,47 @@
         <v>187</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q26" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q26" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="12"/>
@@ -2406,45 +2452,47 @@
         <v>179</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M27" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P27" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q27" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="12"/>
@@ -2463,45 +2511,47 @@
         <v>179</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q28" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q28" s="36" t="s">
+        <v>111</v>
+      </c>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="12"/>
@@ -2520,45 +2570,47 @@
         <v>175</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M29" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P29" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q29" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="12"/>
@@ -2577,45 +2629,47 @@
         <v>167</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q30" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q30" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="12"/>
@@ -2634,45 +2688,47 @@
         <v>161</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M31" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P31" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q31" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q31" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="12"/>
@@ -2691,45 +2747,47 @@
         <v>160</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P32" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q32" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q32" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="12"/>
@@ -2748,45 +2806,47 @@
         <v>160</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M33" s="34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P33" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q33" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q33" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="12"/>
@@ -2805,45 +2865,47 @@
         <v>157</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P34" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q34" s="11"/>
+        <v>125</v>
+      </c>
+      <c r="Q34" s="36" t="s">
+        <v>125</v>
+      </c>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="12"/>
@@ -2862,45 +2924,47 @@
         <v>153</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M35" s="34" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="O35" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P35" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q35" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q35" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="12"/>
@@ -2919,45 +2983,47 @@
         <v>141</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O36" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P36" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q36" s="11"/>
+        <v>132</v>
+      </c>
+      <c r="Q36" s="36" t="s">
+        <v>132</v>
+      </c>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="12"/>
@@ -2976,45 +3042,47 @@
         <v>138</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L37" s="36" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M37" s="34" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O37" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P37" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q37" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q37" s="36" t="s">
+        <v>136</v>
+      </c>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="12"/>
@@ -3033,41 +3101,43 @@
         <v>97</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K38" s="36" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="L38" s="36" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="34"/>
       <c r="P38" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q38" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="Q38" s="36" t="s">
+        <v>82</v>
+      </c>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="12"/>
@@ -3086,41 +3156,43 @@
         <v>87</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="M39" s="34" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="34"/>
       <c r="P39" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q39" s="11"/>
+        <v>143</v>
+      </c>
+      <c r="Q39" s="36" t="s">
+        <v>143</v>
+      </c>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="12"/>
@@ -3139,41 +3211,43 @@
         <v>81</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K40" s="36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M40" s="34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="34"/>
       <c r="P40" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q40" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="Q40" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="12"/>
@@ -3192,45 +3266,47 @@
         <v>74</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M41" s="34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="P41" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q41" s="11"/>
+        <v>146</v>
+      </c>
+      <c r="Q41" s="36" t="s">
+        <v>146</v>
+      </c>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="12"/>
@@ -3249,45 +3325,47 @@
         <v>71</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L42" s="36" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M42" s="34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="O42" s="34" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P42" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q42" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q42" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="12"/>
@@ -3306,45 +3384,47 @@
         <v>71</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M43" s="34" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="O43" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P43" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q43" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q43" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="12"/>
@@ -3363,41 +3443,43 @@
         <v>63</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N44" s="13"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q44" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="12"/>

--- a/product_ranking_individual_eyelash_extension.xlsx
+++ b/product_ranking_individual_eyelash_extension.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Market Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\Market Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="151">
-  <si>
-    <t>2018-10-09 17:29:02</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="156">
+  <si>
+    <t>2018-10-09 20:49:53</t>
+  </si>
+  <si>
+    <t>2018-10-09 19:49:06</t>
+  </si>
+  <si>
+    <t>2018-10-09 18:50:13</t>
   </si>
   <si>
     <t>2018-10-09 16:36:23</t>
@@ -48,6 +54,9 @@
     <t>2018-10-09 11:25:34</t>
   </si>
   <si>
+    <t>wholesale individual bulk pbt soft silk premium korean private label silk eyelash extension wholesale professional</t>
+  </si>
+  <si>
     <t>wholesale individual bulk pbt soft silk premium korean private label eyelash extension wholesale professional</t>
   </si>
   <si>
@@ -99,6 +108,9 @@
     <t>eyelash extension lash professional salon use wholesale</t>
   </si>
   <si>
+    <t>individual false eye lash eyelash extension private label</t>
+  </si>
+  <si>
     <t>silk individual false eye lash extension eyelash lash</t>
   </si>
   <si>
@@ -123,6 +135,9 @@
     <t>individual eyelash extension private label</t>
   </si>
   <si>
+    <t>silk lash eyelash extension supplies</t>
+  </si>
+  <si>
     <t>private label lash eyelash extension supplies</t>
   </si>
   <si>
@@ -153,12 +168,12 @@
     <t>eyelash extension</t>
   </si>
   <si>
+    <t>4-3</t>
+  </si>
+  <si>
     <t>4-2</t>
   </si>
   <si>
-    <t>4-3</t>
-  </si>
-  <si>
     <t>private label eyelash extension</t>
   </si>
   <si>
@@ -180,15 +195,15 @@
     <t>2-11</t>
   </si>
   <si>
+    <t>2-1</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
     <t>1-36</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
     <t>12-23</t>
   </si>
   <si>
@@ -207,10 +222,13 @@
     <t>korean eyelash extension</t>
   </si>
   <si>
+    <t>2-8</t>
+  </si>
+  <si>
     <t>2-7</t>
   </si>
   <si>
-    <t>2-8</t>
+    <t>1-33</t>
   </si>
   <si>
     <t>1-32</t>
@@ -219,9 +237,6 @@
     <t>19-1</t>
   </si>
   <si>
-    <t>1-33</t>
-  </si>
-  <si>
     <t>18-36</t>
   </si>
   <si>
@@ -255,21 +270,21 @@
     <t>silk eyelash extension</t>
   </si>
   <si>
+    <t>2-34</t>
+  </si>
+  <si>
     <t>2-33</t>
   </si>
   <si>
-    <t>2-34</t>
-  </si>
-  <si>
     <t>eyelash extension wholesale</t>
   </si>
   <si>
+    <t>3-2</t>
+  </si>
+  <si>
     <t>3-1</t>
   </si>
   <si>
-    <t>3-2</t>
-  </si>
-  <si>
     <t>16-22</t>
   </si>
   <si>
@@ -339,139 +354,140 @@
     <t>8-32</t>
   </si>
   <si>
+    <t>1-10</t>
+  </si>
+  <si>
+    <t>extension eyelash</t>
+  </si>
+  <si>
+    <t>eye lash extension</t>
+  </si>
+  <si>
+    <t>silk individual lash</t>
+  </si>
+  <si>
+    <t>12-13</t>
+  </si>
+  <si>
+    <t>2-14</t>
+  </si>
+  <si>
+    <t>eyelash extension set</t>
+  </si>
+  <si>
+    <t>individual false eyelash</t>
+  </si>
+  <si>
+    <t>silk eye lash extension</t>
+  </si>
+  <si>
+    <t>1-19</t>
+  </si>
+  <si>
+    <t>lash silk extension</t>
+  </si>
+  <si>
+    <t>13-18</t>
+  </si>
+  <si>
+    <t>13-15</t>
+  </si>
+  <si>
+    <t>private label lash extension</t>
+  </si>
+  <si>
+    <t>14-12</t>
+  </si>
+  <si>
+    <t>14-11</t>
+  </si>
+  <si>
+    <t>14-13</t>
+  </si>
+  <si>
+    <t>pbt korean eyelash extension</t>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t>1-11</t>
+  </si>
+  <si>
+    <t>lash extension primer</t>
+  </si>
+  <si>
+    <t>1-34</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>bulk eyelash extension</t>
+  </si>
+  <si>
+    <t>9-35</t>
+  </si>
+  <si>
+    <t>9-34</t>
+  </si>
+  <si>
+    <t>9-33</t>
+  </si>
+  <si>
+    <t>eyelash extension faux mink</t>
+  </si>
+  <si>
+    <t>5-31</t>
+  </si>
+  <si>
+    <t>5-29</t>
+  </si>
+  <si>
+    <t>5-28</t>
+  </si>
+  <si>
+    <t>wholesale eyelash extension</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>wholesale individual eyelash extension</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>wholesale silk eyelash extension</t>
+  </si>
+  <si>
+    <t>silk individual eyelash extension</t>
+  </si>
+  <si>
+    <t>1-31</t>
+  </si>
+  <si>
+    <t>eyelash individual extension</t>
+  </si>
+  <si>
+    <t>lash extension individual</t>
+  </si>
+  <si>
+    <t>2-36</t>
+  </si>
+  <si>
+    <t>wholesale lash extension</t>
+  </si>
+  <si>
     <t>soft silk eyelash extension</t>
-  </si>
-  <si>
-    <t>1-10</t>
-  </si>
-  <si>
-    <t>extension eyelash</t>
-  </si>
-  <si>
-    <t>eye lash extension</t>
-  </si>
-  <si>
-    <t>silk individual lash</t>
-  </si>
-  <si>
-    <t>12-13</t>
-  </si>
-  <si>
-    <t>2-14</t>
-  </si>
-  <si>
-    <t>eyelash extension set</t>
-  </si>
-  <si>
-    <t>individual false eyelash</t>
-  </si>
-  <si>
-    <t>silk eye lash extension</t>
-  </si>
-  <si>
-    <t>1-19</t>
-  </si>
-  <si>
-    <t>lash silk extension</t>
-  </si>
-  <si>
-    <t>13-18</t>
-  </si>
-  <si>
-    <t>13-15</t>
-  </si>
-  <si>
-    <t>private label lash extension</t>
-  </si>
-  <si>
-    <t>14-12</t>
-  </si>
-  <si>
-    <t>14-11</t>
-  </si>
-  <si>
-    <t>14-13</t>
-  </si>
-  <si>
-    <t>pbt korean eyelash extension</t>
-  </si>
-  <si>
-    <t>1-12</t>
-  </si>
-  <si>
-    <t>1-11</t>
-  </si>
-  <si>
-    <t>lash extension primer</t>
-  </si>
-  <si>
-    <t>1-34</t>
-  </si>
-  <si>
-    <t>1-6</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>bulk eyelash extension</t>
-  </si>
-  <si>
-    <t>9-35</t>
-  </si>
-  <si>
-    <t>9-34</t>
-  </si>
-  <si>
-    <t>9-33</t>
-  </si>
-  <si>
-    <t>eyelash extension faux mink</t>
-  </si>
-  <si>
-    <t>5-31</t>
-  </si>
-  <si>
-    <t>5-29</t>
-  </si>
-  <si>
-    <t>5-28</t>
-  </si>
-  <si>
-    <t>wholesale eyelash extension</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>wholesale individual eyelash extension</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>wholesale silk eyelash extension</t>
-  </si>
-  <si>
-    <t>silk individual eyelash extension</t>
-  </si>
-  <si>
-    <t>1-31</t>
-  </si>
-  <si>
-    <t>eyelash individual extension</t>
-  </si>
-  <si>
-    <t>lash extension individual</t>
-  </si>
-  <si>
-    <t>2-36</t>
-  </si>
-  <si>
-    <t>wholesale lash extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -560,12 +576,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -580,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -687,6 +709,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,27 +993,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="4.625" style="28" customWidth="1"/>
-    <col min="4" max="5" width="36.75" style="5" customWidth="1"/>
-    <col min="6" max="13" width="30.625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="30.625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="30.625" style="5" customWidth="1"/>
-    <col min="16" max="19" width="31" style="5" customWidth="1"/>
-    <col min="20" max="20" width="31" style="9" customWidth="1"/>
-    <col min="21" max="21" width="41.625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="45.75" style="4" customWidth="1"/>
-    <col min="23" max="23" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.75" style="5" customWidth="1"/>
+    <col min="5" max="15" width="30.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="30.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="30.625" style="5" customWidth="1"/>
+    <col min="18" max="21" width="31" style="5" customWidth="1"/>
+    <col min="22" max="22" width="31" style="9" customWidth="1"/>
+    <col min="23" max="23" width="41.625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="45.75" style="4" customWidth="1"/>
+    <col min="25" max="25" width="40.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -1025,15 +1050,21 @@
       <c r="O1" s="1">
         <v>60732345735</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
+      <c r="P1" s="1">
+        <v>60732345735</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>60732345735</v>
+      </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1056,212 +1087,242 @@
       <c r="J2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="37" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-    </row>
-    <row r="3" spans="1:23" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+    </row>
+    <row r="3" spans="1:25" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="20">
-        <f>LEN(F3)</f>
+        <f>LEN(H3)</f>
         <v>86</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="M3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="19" t="s">
+      <c r="N3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
+      <c r="O3" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
       <c r="W3" s="19"/>
-    </row>
-    <row r="4" spans="1:23" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+    </row>
+    <row r="4" spans="1:25" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="M4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="35" t="s">
         <v>24</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="1:23" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+    </row>
+    <row r="5" spans="1:25" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="E5" s="19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="N5" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
       <c r="W5" s="19"/>
-    </row>
-    <row r="6" spans="1:23" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+    </row>
+    <row r="6" spans="1:25" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
       <c r="E6" s="19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
       <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+    </row>
+    <row r="7" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>727</v>
       </c>
@@ -1272,55 +1333,59 @@
         <v>3091</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="8" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="36"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="16"/>
+    </row>
+    <row r="8" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>340</v>
       </c>
@@ -1331,55 +1396,59 @@
         <v>489</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="O8" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="16"/>
-    </row>
-    <row r="9" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="36"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="16"/>
+    </row>
+    <row r="9" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>146</v>
       </c>
@@ -1390,55 +1459,59 @@
         <v>463</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>56</v>
       </c>
       <c r="O9" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="16"/>
-    </row>
-    <row r="10" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="S9" s="36"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="16"/>
+    </row>
+    <row r="10" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>36</v>
       </c>
@@ -1449,55 +1522,59 @@
         <v>451</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J10" s="32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>61</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="16"/>
-    </row>
-    <row r="11" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="16"/>
+    </row>
+    <row r="11" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>104</v>
       </c>
@@ -1508,55 +1585,59 @@
         <v>395</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>59</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>65</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="16"/>
-    </row>
-    <row r="12" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="S11" s="36"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="16"/>
+    </row>
+    <row r="12" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>328</v>
       </c>
@@ -1567,55 +1648,59 @@
         <v>368</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q12" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="16"/>
-    </row>
-    <row r="13" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="36"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="16"/>
+    </row>
+    <row r="13" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>183</v>
       </c>
@@ -1626,55 +1711,59 @@
         <v>361</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>71</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="P13" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="16"/>
-    </row>
-    <row r="14" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="S13" s="33"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="16"/>
+    </row>
+    <row r="14" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>116</v>
       </c>
@@ -1685,55 +1774,59 @@
         <v>326</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M14" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="O14" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="16"/>
-    </row>
-    <row r="15" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" s="36"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="16"/>
+    </row>
+    <row r="15" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>72</v>
       </c>
@@ -1744,55 +1837,59 @@
         <v>322</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="L15" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>75</v>
       </c>
       <c r="O15" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="16"/>
-    </row>
-    <row r="16" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="36"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="16"/>
+    </row>
+    <row r="16" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>111</v>
       </c>
@@ -1803,55 +1900,59 @@
         <v>310</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="O16" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="16"/>
-    </row>
-    <row r="17" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R16" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="36"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="16"/>
+    </row>
+    <row r="17" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>257</v>
       </c>
@@ -1862,55 +1963,59 @@
         <v>280</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L17" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>83</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="16"/>
-    </row>
-    <row r="18" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="S17" s="36"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="16"/>
+    </row>
+    <row r="18" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30">
         <v>212</v>
       </c>
@@ -1921,55 +2026,59 @@
         <v>263</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>53</v>
+        <v>86</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="O18" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="16"/>
-    </row>
-    <row r="19" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" s="36"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="16"/>
+    </row>
+    <row r="19" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>52</v>
       </c>
@@ -1980,55 +2089,59 @@
         <v>253</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="L19" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>50</v>
       </c>
       <c r="O19" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="16"/>
-    </row>
-    <row r="20" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="36"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="16"/>
+    </row>
+    <row r="20" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>107</v>
       </c>
@@ -2039,55 +2152,59 @@
         <v>247</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="L20" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="O20" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="16"/>
-    </row>
-    <row r="21" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S20" s="36"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="16"/>
+    </row>
+    <row r="21" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>26</v>
       </c>
@@ -2098,55 +2215,59 @@
         <v>233</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="L21" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>99</v>
       </c>
       <c r="O21" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q21" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="16"/>
-    </row>
-    <row r="22" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q21" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="36"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="16"/>
+    </row>
+    <row r="22" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>12</v>
       </c>
@@ -2157,55 +2278,59 @@
         <v>231</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K22" s="36" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L22" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M22" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="O22" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="P22" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q22" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="16"/>
-    </row>
-    <row r="23" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="R22" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="S22" s="36"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="16"/>
+    </row>
+    <row r="23" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>55</v>
       </c>
@@ -2216,55 +2341,59 @@
         <v>224</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L23" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="M23" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>108</v>
       </c>
       <c r="O23" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="P23" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="16"/>
-    </row>
-    <row r="24" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="R23" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="S23" s="36"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="16"/>
+    </row>
+    <row r="24" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>49</v>
       </c>
@@ -2275,55 +2404,59 @@
         <v>205</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J24" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L24" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>105</v>
+        <v>59</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="O24" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q24" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="16"/>
-    </row>
-    <row r="25" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="36"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="16"/>
+    </row>
+    <row r="25" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>17</v>
       </c>
@@ -2334,55 +2467,59 @@
         <v>202</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J25" s="36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L25" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="M25" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>111</v>
       </c>
       <c r="O25" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="16"/>
-    </row>
-    <row r="26" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="S25" s="36"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="16"/>
+    </row>
+    <row r="26" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>152</v>
       </c>
@@ -2393,55 +2530,59 @@
         <v>187</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K26" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="O26" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q26" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="16"/>
-    </row>
-    <row r="27" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" s="36"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="16"/>
+    </row>
+    <row r="27" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30">
         <v>156</v>
       </c>
@@ -2452,55 +2593,59 @@
         <v>179</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M27" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="O27" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="14"/>
-    </row>
-    <row r="28" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="36"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="14"/>
+    </row>
+    <row r="28" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
         <v>30</v>
       </c>
@@ -2511,55 +2656,59 @@
         <v>179</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>112</v>
+        <v>59</v>
+      </c>
+      <c r="M28" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="O28" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q28" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S28" s="36"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="14"/>
+    </row>
+    <row r="29" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30">
         <v>23</v>
       </c>
@@ -2570,55 +2719,59 @@
         <v>175</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K29" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M29" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="O29" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q29" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q29" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" s="36"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="14"/>
+    </row>
+    <row r="30" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30">
         <v>97</v>
       </c>
@@ -2629,55 +2782,59 @@
         <v>167</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M30" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M30" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q30" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="14"/>
-    </row>
-    <row r="31" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R30" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S30" s="36"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="14"/>
+    </row>
+    <row r="31" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <v>17</v>
       </c>
@@ -2688,55 +2845,59 @@
         <v>161</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M31" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="O31" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q31" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="14"/>
-    </row>
-    <row r="32" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R31" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S31" s="36"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
+    </row>
+    <row r="32" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30">
         <v>1</v>
       </c>
@@ -2747,55 +2908,59 @@
         <v>160</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>119</v>
+        <v>59</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>59</v>
       </c>
       <c r="O32" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q32" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q32" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R32" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S32" s="36"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="14"/>
+    </row>
+    <row r="33" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
         <v>53</v>
       </c>
@@ -2806,55 +2971,59 @@
         <v>160</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="M33" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>123</v>
+        <v>59</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="O33" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q33" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q33" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R33" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S33" s="36"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="14"/>
+    </row>
+    <row r="34" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30">
         <v>3</v>
       </c>
@@ -2865,55 +3034,59 @@
         <v>157</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
+      </c>
+      <c r="M34" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>129</v>
       </c>
       <c r="O34" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="P34" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q34" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="16"/>
-    </row>
-    <row r="35" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q34" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="R34" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="S34" s="36"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="16"/>
+    </row>
+    <row r="35" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30">
         <v>7</v>
       </c>
@@ -2924,55 +3097,59 @@
         <v>153</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="M35" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
+      </c>
+      <c r="M35" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>133</v>
       </c>
       <c r="O35" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q35" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="16"/>
-    </row>
-    <row r="36" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q35" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R35" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S35" s="36"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="16"/>
+    </row>
+    <row r="36" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <v>117</v>
       </c>
@@ -2983,55 +3160,59 @@
         <v>141</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="K36" s="36" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="M36" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="M36" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="O36" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q36" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="16"/>
-    </row>
-    <row r="37" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R36" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="S36" s="36"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="13"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="16"/>
+    </row>
+    <row r="37" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
         <v>16</v>
       </c>
@@ -3042,55 +3223,59 @@
         <v>138</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K37" s="36" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="L37" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="M37" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
+      </c>
+      <c r="M37" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>142</v>
       </c>
       <c r="O37" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q37" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="16"/>
-    </row>
-    <row r="38" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q37" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R37" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="S37" s="36"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="16"/>
+    </row>
+    <row r="38" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
         <v>129</v>
       </c>
@@ -3101,51 +3286,55 @@
         <v>97</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K38" s="36" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L38" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="M38" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q38" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="16"/>
-    </row>
-    <row r="39" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="M38" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="N38" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O38" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="34"/>
+      <c r="R38" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="S38" s="36"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="13"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="16"/>
+    </row>
+    <row r="39" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30">
         <v>105</v>
       </c>
@@ -3156,51 +3345,55 @@
         <v>87</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="J39" s="36" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="K39" s="36" t="s">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="M39" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="N39" s="1"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q39" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="16"/>
-    </row>
-    <row r="40" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="M39" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="N39" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="O39" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="S39" s="36"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="13"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="16"/>
+    </row>
+    <row r="40" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30">
         <v>58</v>
       </c>
@@ -3211,51 +3404,55 @@
         <v>81</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J40" s="36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K40" s="36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L40" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M40" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q40" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="16"/>
-    </row>
-    <row r="41" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="M40" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N40" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="O40" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="S40" s="36"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="16"/>
+    </row>
+    <row r="41" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30">
         <v>38</v>
       </c>
@@ -3266,55 +3463,59 @@
         <v>74</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="J41" s="36" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="L41" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="M41" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>146</v>
+        <v>59</v>
+      </c>
+      <c r="M41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="O41" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="P41" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q41" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="16"/>
-    </row>
-    <row r="42" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q41" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="R41" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="S41" s="36"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="16"/>
+    </row>
+    <row r="42" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30">
         <v>11</v>
       </c>
@@ -3325,55 +3526,59 @@
         <v>71</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="J42" s="36" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="L42" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="M42" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>140</v>
+        <v>59</v>
+      </c>
+      <c r="M42" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>144</v>
       </c>
       <c r="O42" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="P42" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q42" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="16"/>
-    </row>
-    <row r="43" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q42" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="R42" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S42" s="36"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="16"/>
+    </row>
+    <row r="43" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30">
         <v>5</v>
       </c>
@@ -3384,55 +3589,59 @@
         <v>71</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="J43" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L43" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="M43" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>149</v>
+        <v>59</v>
+      </c>
+      <c r="M43" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="O43" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P43" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q43" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="16"/>
-    </row>
-    <row r="44" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q43" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="R43" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S43" s="36"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="16"/>
+    </row>
+    <row r="44" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28">
         <v>36</v>
       </c>
@@ -3443,51 +3652,55 @@
         <v>63</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J44" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L44" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N44" s="13"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q44" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R44" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="S44" s="11"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="16"/>
-    </row>
-    <row r="45" spans="1:23" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="16"/>
+    </row>
+    <row r="45" spans="1:25" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
@@ -3501,18 +3714,20 @@
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
-      <c r="N45" s="13"/>
+      <c r="N45" s="11"/>
       <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
+      <c r="P45" s="13"/>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="16"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="16"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -3523,18 +3738,20 @@
       <c r="K46" s="11"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
-      <c r="N46" s="13"/>
+      <c r="N46" s="11"/>
       <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
+      <c r="P46" s="13"/>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="16"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="16"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -3545,18 +3762,20 @@
       <c r="K47" s="11"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
-      <c r="N47" s="13"/>
+      <c r="N47" s="11"/>
       <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
+      <c r="P47" s="13"/>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="16"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="16"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -3567,18 +3786,20 @@
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
-      <c r="N48" s="13"/>
+      <c r="N48" s="11"/>
       <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+      <c r="P48" s="13"/>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="16"/>
-    </row>
-    <row r="49" spans="4:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="16"/>
+    </row>
+    <row r="49" spans="4:25" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -3589,31 +3810,33 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="8"/>
+      <c r="N49" s="6"/>
       <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
+      <c r="P49" s="8"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="8"/>
-      <c r="U49" s="8"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
       <c r="V49" s="8"/>
-      <c r="W49" s="7"/>
-    </row>
-    <row r="51" spans="4:23" x14ac:dyDescent="0.2">
-      <c r="N51" s="1"/>
-    </row>
-    <row r="53" spans="4:23" x14ac:dyDescent="0.2">
-      <c r="N53" s="10"/>
-    </row>
-    <row r="54" spans="4:23" x14ac:dyDescent="0.2">
-      <c r="N54" s="10"/>
-    </row>
-    <row r="55" spans="4:23" x14ac:dyDescent="0.2">
-      <c r="N55" s="10"/>
-    </row>
-    <row r="56" spans="4:23" x14ac:dyDescent="0.2">
-      <c r="N56" s="10"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="7"/>
+    </row>
+    <row r="51" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="P51" s="1"/>
+    </row>
+    <row r="53" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="P53" s="10"/>
+    </row>
+    <row r="54" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="P54" s="10"/>
+    </row>
+    <row r="55" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="P55" s="10"/>
+    </row>
+    <row r="56" spans="4:25" x14ac:dyDescent="0.2">
+      <c r="P56" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/product_ranking_individual_eyelash_extension.xlsx
+++ b/product_ranking_individual_eyelash_extension.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="154">
+  <si>
+    <t>2018-10-25 17:54:26</t>
+  </si>
   <si>
     <t>2018-10-10 14:16:13</t>
   </si>
@@ -117,6 +120,9 @@
     <t>eyelash extension</t>
   </si>
   <si>
+    <t>4-12</t>
+  </si>
+  <si>
     <t>4-7</t>
   </si>
   <si>
@@ -129,6 +135,9 @@
     <t>private label eyelash extension</t>
   </si>
   <si>
+    <t>3-26</t>
+  </si>
+  <si>
     <t>3-17</t>
   </si>
   <si>
@@ -141,6 +150,9 @@
     <t>eyelash extension professional</t>
   </si>
   <si>
+    <t>1-32</t>
+  </si>
+  <si>
     <t>1-31</t>
   </si>
   <si>
@@ -156,6 +168,9 @@
     <t>2-12</t>
   </si>
   <si>
+    <t>2-14</t>
+  </si>
+  <si>
     <t>2-2</t>
   </si>
   <si>
@@ -171,6 +186,9 @@
     <t>eyelash extension silk</t>
   </si>
   <si>
+    <t>1-36</t>
+  </si>
+  <si>
     <t>2-6</t>
   </si>
   <si>
@@ -186,15 +204,15 @@
     <t>korean eyelash extension</t>
   </si>
   <si>
+    <t>2-7</t>
+  </si>
+  <si>
     <t>2-9</t>
   </si>
   <si>
     <t>2-8</t>
   </si>
   <si>
-    <t>2-7</t>
-  </si>
-  <si>
     <t>eyelash extension supplies</t>
   </si>
   <si>
@@ -210,9 +228,6 @@
     <t>18-36</t>
   </si>
   <si>
-    <t>1-32</t>
-  </si>
-  <si>
     <t>extension lash</t>
   </si>
   <si>
@@ -243,12 +258,12 @@
     <t>silk eyelash extension</t>
   </si>
   <si>
+    <t>2-33</t>
+  </si>
+  <si>
     <t>2-34</t>
   </si>
   <si>
-    <t>2-33</t>
-  </si>
-  <si>
     <t>eyelash extension wholesale</t>
   </si>
   <si>
@@ -294,6 +309,9 @@
     <t>eyelash-extension</t>
   </si>
   <si>
+    <t>5-19</t>
+  </si>
+  <si>
     <t>5-1</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>lash extension supplies</t>
   </si>
   <si>
+    <t>1-15</t>
+  </si>
+  <si>
     <t>1-17</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>soft silk eyelash extension</t>
   </si>
   <si>
+    <t>1-12</t>
+  </si>
+  <si>
     <t>1-10</t>
   </si>
   <si>
@@ -339,9 +363,6 @@
     <t>silk individual lash</t>
   </si>
   <si>
-    <t>2-14</t>
-  </si>
-  <si>
     <t>eyelash extension set</t>
   </si>
   <si>
@@ -372,12 +393,12 @@
     <t>pbt korean eyelash extension</t>
   </si>
   <si>
+    <t>1-16</t>
+  </si>
+  <si>
     <t>1-13</t>
   </si>
   <si>
-    <t>1-12</t>
-  </si>
-  <si>
     <t>lash extension primer</t>
   </si>
   <si>
@@ -390,6 +411,9 @@
     <t>bulk eyelash extension</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>9-35</t>
   </si>
   <si>
@@ -402,6 +426,9 @@
     <t>eyelash extension faux mink</t>
   </si>
   <si>
+    <t>6-6</t>
+  </si>
+  <si>
     <t>5-33</t>
   </si>
   <si>
@@ -417,6 +444,9 @@
     <t>wholesale eyelash extension</t>
   </si>
   <si>
+    <t>3-10</t>
+  </si>
+  <si>
     <t>3-3</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>wholesale silk eyelash extension</t>
   </si>
   <si>
+    <t>1-35</t>
+  </si>
+  <si>
     <t>silk individual eyelash extension</t>
   </si>
   <si>
@@ -442,6 +475,9 @@
   </si>
   <si>
     <t>synthetic mink eyelash extension</t>
+  </si>
+  <si>
+    <t>6-27</t>
   </si>
   <si>
     <t>6-22</t>
@@ -451,6 +487,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -670,6 +709,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -950,27 +990,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="4.625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="36.75" style="5" customWidth="1"/>
-    <col min="5" max="10" width="30.625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="30.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="30.625" style="5" customWidth="1"/>
-    <col min="13" max="16" width="31" style="5" customWidth="1"/>
-    <col min="17" max="17" width="31" style="9" customWidth="1"/>
-    <col min="18" max="18" width="41.625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="45.75" style="4" customWidth="1"/>
-    <col min="20" max="20" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="36.75" style="5" customWidth="1"/>
+    <col min="6" max="11" width="30.625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="30.625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="30.625" style="5" customWidth="1"/>
+    <col min="14" max="17" width="31" style="5" customWidth="1"/>
+    <col min="18" max="18" width="31" style="9" customWidth="1"/>
+    <col min="19" max="19" width="41.625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="45.75" style="4" customWidth="1"/>
+    <col min="21" max="21" width="40.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -998,15 +1038,18 @@
       <c r="L1" s="1">
         <v>60732345735</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="M1" s="1">
+        <v>60732345735</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1017,79 +1060,80 @@
       <c r="F2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="37" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="L2" s="23"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="24"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="23"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="26"/>
       <c r="T2" s="23"/>
-    </row>
-    <row r="3" spans="1:20" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U2" s="23"/>
+    </row>
+    <row r="3" spans="1:21" s="20" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="28"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="20">
-        <f>LEN(E3)</f>
+        <f>LEN(F3)</f>
         <v>128</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>6</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="M3" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
-      <c r="R3" s="19"/>
+      <c r="R3" s="18"/>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="1:20" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U3" s="19"/>
+    </row>
+    <row r="4" spans="1:21" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="E4" s="19"/>
       <c r="F4" s="19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>14</v>
@@ -1097,35 +1141,35 @@
       <c r="H4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="J4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="M4" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="19"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="19"/>
       <c r="T4" s="19"/>
-    </row>
-    <row r="5" spans="1:20" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U4" s="19"/>
+    </row>
+    <row r="5" spans="1:21" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
-      <c r="E5" s="19" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>20</v>
@@ -1133,35 +1177,35 @@
       <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="K5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="18"/>
+      <c r="M5" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="19"/>
+      <c r="R5" s="18"/>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
-    </row>
-    <row r="6" spans="1:20" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U5" s="19"/>
+    </row>
+    <row r="6" spans="1:21" s="20" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28"/>
-      <c r="E6" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>26</v>
@@ -1169,27 +1213,30 @@
       <c r="H6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="18" t="s">
+      <c r="J6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="N6" s="18"/>
+      <c r="M6" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
+      <c r="R6" s="18"/>
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
-    </row>
-    <row r="7" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>727</v>
       </c>
@@ -1200,44 +1247,47 @@
         <v>3091</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="36"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="12"/>
       <c r="S7" s="13"/>
-      <c r="T7" s="16"/>
-    </row>
-    <row r="8" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T7" s="13"/>
+      <c r="U7" s="16"/>
+    </row>
+    <row r="8" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>340</v>
       </c>
@@ -1248,44 +1298,47 @@
         <v>489</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="11"/>
+        <v>41</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" s="36"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="13"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="12"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="16"/>
-    </row>
-    <row r="9" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T8" s="13"/>
+      <c r="U8" s="16"/>
+    </row>
+    <row r="9" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30">
         <v>146</v>
       </c>
@@ -1296,44 +1349,47 @@
         <v>463</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="36"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="13"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="12"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="16"/>
-    </row>
-    <row r="10" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="13"/>
+      <c r="U9" s="16"/>
+    </row>
+    <row r="10" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>36</v>
       </c>
@@ -1344,44 +1400,47 @@
         <v>451</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="32"/>
-      <c r="O10" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="32"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="16"/>
-    </row>
-    <row r="11" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T10" s="13"/>
+      <c r="U10" s="16"/>
+    </row>
+    <row r="11" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="30">
         <v>104</v>
       </c>
@@ -1392,44 +1451,47 @@
         <v>395</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="N11" s="36"/>
-      <c r="O11" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="36"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="12"/>
       <c r="S11" s="13"/>
-      <c r="T11" s="16"/>
-    </row>
-    <row r="12" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T11" s="13"/>
+      <c r="U11" s="16"/>
+    </row>
+    <row r="12" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="30">
         <v>328</v>
       </c>
@@ -1440,44 +1502,47 @@
         <v>368</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="36"/>
-      <c r="O12" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="O12" s="36"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="13"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="16"/>
-    </row>
-    <row r="13" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T12" s="13"/>
+      <c r="U12" s="16"/>
+    </row>
+    <row r="13" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>183</v>
       </c>
@@ -1488,44 +1553,47 @@
         <v>361</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="33"/>
-      <c r="O13" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" s="33"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="13"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="12"/>
       <c r="S13" s="13"/>
-      <c r="T13" s="16"/>
-    </row>
-    <row r="14" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T13" s="13"/>
+      <c r="U13" s="16"/>
+    </row>
+    <row r="14" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>116</v>
       </c>
@@ -1536,44 +1604,47 @@
         <v>326</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="36"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="13"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="13"/>
-      <c r="T14" s="16"/>
-    </row>
-    <row r="15" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="13"/>
+      <c r="U14" s="16"/>
+    </row>
+    <row r="15" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30">
         <v>72</v>
       </c>
@@ -1584,44 +1655,47 @@
         <v>322</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15" s="36"/>
-      <c r="O15" s="11"/>
+        <v>73</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="36"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="13"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="13"/>
-      <c r="T15" s="16"/>
-    </row>
-    <row r="16" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T15" s="13"/>
+      <c r="U15" s="16"/>
+    </row>
+    <row r="16" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="30">
         <v>111</v>
       </c>
@@ -1632,44 +1706,47 @@
         <v>310</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H16" s="36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="J16" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="36"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="13"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="16"/>
-    </row>
-    <row r="17" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T16" s="13"/>
+      <c r="U16" s="16"/>
+    </row>
+    <row r="17" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30">
         <v>257</v>
       </c>
@@ -1680,44 +1757,47 @@
         <v>280</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="O17" s="36"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="13"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="16"/>
-    </row>
-    <row r="18" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T17" s="13"/>
+      <c r="U17" s="16"/>
+    </row>
+    <row r="18" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30">
         <v>212</v>
       </c>
@@ -1728,44 +1808,47 @@
         <v>263</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" s="36"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="13"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="16"/>
-    </row>
-    <row r="19" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T18" s="13"/>
+      <c r="U18" s="16"/>
+    </row>
+    <row r="19" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>52</v>
       </c>
@@ -1776,44 +1859,47 @@
         <v>253</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" s="36"/>
-      <c r="O19" s="11"/>
+        <v>36</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="36"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="13"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="12"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="16"/>
-    </row>
-    <row r="20" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T19" s="13"/>
+      <c r="U19" s="16"/>
+    </row>
+    <row r="20" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>107</v>
       </c>
@@ -1824,44 +1910,47 @@
         <v>247</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="36"/>
-      <c r="O20" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="36"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="13"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12"/>
       <c r="S20" s="13"/>
-      <c r="T20" s="16"/>
-    </row>
-    <row r="21" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T20" s="13"/>
+      <c r="U20" s="16"/>
+    </row>
+    <row r="21" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>26</v>
       </c>
@@ -1872,44 +1961,47 @@
         <v>233</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" s="36"/>
-      <c r="O21" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="36"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="13"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="12"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="16"/>
-    </row>
-    <row r="22" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T21" s="13"/>
+      <c r="U21" s="16"/>
+    </row>
+    <row r="22" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>12</v>
       </c>
@@ -1920,44 +2012,47 @@
         <v>231</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="N22" s="36"/>
-      <c r="O22" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="O22" s="36"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="13"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="12"/>
       <c r="S22" s="13"/>
-      <c r="T22" s="16"/>
-    </row>
-    <row r="23" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T22" s="13"/>
+      <c r="U22" s="16"/>
+    </row>
+    <row r="23" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="30">
         <v>55</v>
       </c>
@@ -1968,44 +2063,47 @@
         <v>224</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="N23" s="36"/>
-      <c r="O23" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M23" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23" s="36"/>
       <c r="P23" s="11"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="13"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="12"/>
       <c r="S23" s="13"/>
-      <c r="T23" s="16"/>
-    </row>
-    <row r="24" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T23" s="13"/>
+      <c r="U23" s="16"/>
+    </row>
+    <row r="24" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>49</v>
       </c>
@@ -2016,44 +2114,47 @@
         <v>205</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H24" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="36"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="13"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="12"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="16"/>
-    </row>
-    <row r="25" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T24" s="13"/>
+      <c r="U24" s="16"/>
+    </row>
+    <row r="25" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>17</v>
       </c>
@@ -2064,44 +2165,47 @@
         <v>202</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="36"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="13"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="12"/>
       <c r="S25" s="13"/>
-      <c r="T25" s="16"/>
-    </row>
-    <row r="26" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T25" s="13"/>
+      <c r="U25" s="16"/>
+    </row>
+    <row r="26" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>152</v>
       </c>
@@ -2112,44 +2216,47 @@
         <v>187</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J26" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="36"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="13"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="12"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="16"/>
-    </row>
-    <row r="27" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T26" s="13"/>
+      <c r="U26" s="16"/>
+    </row>
+    <row r="27" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="30">
         <v>156</v>
       </c>
@@ -2160,44 +2267,47 @@
         <v>179</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L27" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="36"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="13"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="12"/>
       <c r="S27" s="13"/>
-      <c r="T27" s="14"/>
-    </row>
-    <row r="28" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T27" s="13"/>
+      <c r="U27" s="14"/>
+    </row>
+    <row r="28" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
         <v>30</v>
       </c>
@@ -2208,44 +2318,47 @@
         <v>179</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L28" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M28" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="36"/>
       <c r="P28" s="11"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="13"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="12"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="14"/>
-    </row>
-    <row r="29" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T28" s="13"/>
+      <c r="U28" s="14"/>
+    </row>
+    <row r="29" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30">
         <v>23</v>
       </c>
@@ -2256,44 +2369,47 @@
         <v>175</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L29" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M29" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="36"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="13"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12"/>
       <c r="S29" s="13"/>
-      <c r="T29" s="14"/>
-    </row>
-    <row r="30" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T29" s="13"/>
+      <c r="U29" s="14"/>
+    </row>
+    <row r="30" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30">
         <v>97</v>
       </c>
@@ -2304,44 +2420,47 @@
         <v>167</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="36"/>
-      <c r="O30" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="36"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="13"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="13"/>
-      <c r="T30" s="14"/>
-    </row>
-    <row r="31" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T30" s="13"/>
+      <c r="U30" s="14"/>
+    </row>
+    <row r="31" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="30">
         <v>17</v>
       </c>
@@ -2352,44 +2471,47 @@
         <v>161</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J31" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="36"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="13"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12"/>
       <c r="S31" s="13"/>
-      <c r="T31" s="14"/>
-    </row>
-    <row r="32" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T31" s="13"/>
+      <c r="U31" s="14"/>
+    </row>
+    <row r="32" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30">
         <v>1</v>
       </c>
@@ -2400,44 +2522,47 @@
         <v>160</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M32" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O32" s="36"/>
       <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="13"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="14"/>
-    </row>
-    <row r="33" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T32" s="13"/>
+      <c r="U32" s="14"/>
+    </row>
+    <row r="33" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
         <v>53</v>
       </c>
@@ -2448,44 +2573,47 @@
         <v>160</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="J33" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L33" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M33" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N33" s="36"/>
-      <c r="O33" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="K33" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O33" s="36"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="13"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12"/>
       <c r="S33" s="13"/>
-      <c r="T33" s="14"/>
-    </row>
-    <row r="34" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T33" s="13"/>
+      <c r="U33" s="14"/>
+    </row>
+    <row r="34" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="30">
         <v>3</v>
       </c>
@@ -2496,44 +2624,47 @@
         <v>157</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L34" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="M34" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="11"/>
+        <v>110</v>
+      </c>
+      <c r="J34" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K34" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="N34" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="O34" s="36"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="13"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="12"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="16"/>
-    </row>
-    <row r="35" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T34" s="13"/>
+      <c r="U34" s="16"/>
+    </row>
+    <row r="35" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30">
         <v>7</v>
       </c>
@@ -2544,44 +2675,47 @@
         <v>153</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L35" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="11"/>
+        <v>127</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="K35" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M35" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O35" s="36"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="13"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="12"/>
       <c r="S35" s="13"/>
-      <c r="T35" s="16"/>
-    </row>
-    <row r="36" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T35" s="13"/>
+      <c r="U35" s="16"/>
+    </row>
+    <row r="36" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <v>117</v>
       </c>
@@ -2592,44 +2726,47 @@
         <v>141</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L36" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M36" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="11"/>
+        <v>132</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N36" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" s="36"/>
       <c r="P36" s="11"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="13"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="12"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="16"/>
-    </row>
-    <row r="37" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T36" s="13"/>
+      <c r="U36" s="16"/>
+    </row>
+    <row r="37" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
         <v>16</v>
       </c>
@@ -2640,44 +2777,47 @@
         <v>138</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="J37" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L37" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M37" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="J37" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N37" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="O37" s="36"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="13"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
       <c r="S37" s="13"/>
-      <c r="T37" s="16"/>
-    </row>
-    <row r="38" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T37" s="13"/>
+      <c r="U37" s="16"/>
+    </row>
+    <row r="38" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
         <v>129</v>
       </c>
@@ -2688,40 +2828,43 @@
         <v>97</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="N38" s="36"/>
-      <c r="O38" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="O38" s="36"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="13"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="12"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="16"/>
-    </row>
-    <row r="39" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T38" s="13"/>
+      <c r="U38" s="16"/>
+    </row>
+    <row r="39" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="30">
         <v>105</v>
       </c>
@@ -2732,40 +2875,43 @@
         <v>87</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F39" s="36" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="N39" s="36"/>
-      <c r="O39" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J39" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O39" s="36"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="13"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="12"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="16"/>
-    </row>
-    <row r="40" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T39" s="13"/>
+      <c r="U39" s="16"/>
+    </row>
+    <row r="40" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="30">
         <v>58</v>
       </c>
@@ -2776,40 +2922,43 @@
         <v>81</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J40" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" s="1"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="N40" s="36"/>
-      <c r="O40" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="J40" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="O40" s="36"/>
       <c r="P40" s="11"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="13"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="12"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="16"/>
-    </row>
-    <row r="41" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T40" s="13"/>
+      <c r="U40" s="16"/>
+    </row>
+    <row r="41" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="30">
         <v>38</v>
       </c>
@@ -2820,44 +2969,47 @@
         <v>74</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41" s="36" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I41" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L41" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="M41" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="N41" s="36"/>
-      <c r="O41" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" s="36"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="13"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="12"/>
       <c r="S41" s="13"/>
-      <c r="T41" s="16"/>
-    </row>
-    <row r="42" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T41" s="13"/>
+      <c r="U41" s="16"/>
+    </row>
+    <row r="42" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="30">
         <v>11</v>
       </c>
@@ -2868,44 +3020,47 @@
         <v>71</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I42" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="J42" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L42" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="M42" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N42" s="36"/>
-      <c r="O42" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N42" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O42" s="36"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="13"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="12"/>
       <c r="S42" s="13"/>
-      <c r="T42" s="16"/>
-    </row>
-    <row r="43" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T42" s="13"/>
+      <c r="U42" s="16"/>
+    </row>
+    <row r="43" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="30">
         <v>5</v>
       </c>
@@ -2916,44 +3071,47 @@
         <v>71</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="H43" s="36" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="I43" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="J43" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L43" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M43" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="N43" s="36"/>
-      <c r="O43" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M43" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" s="36"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="13"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="12"/>
       <c r="S43" s="13"/>
-      <c r="T43" s="16"/>
-    </row>
-    <row r="44" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T43" s="13"/>
+      <c r="U43" s="16"/>
+    </row>
+    <row r="44" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28">
         <v>36</v>
       </c>
@@ -2964,40 +3122,43 @@
         <v>63</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K44" s="13"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="N44" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="13"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="13"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="12"/>
       <c r="S44" s="13"/>
-      <c r="T44" s="16"/>
-    </row>
-    <row r="45" spans="1:20" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T44" s="13"/>
+      <c r="U44" s="16"/>
+    </row>
+    <row r="45" spans="1:21" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="28">
         <v>47</v>
       </c>
@@ -3008,28 +3169,31 @@
         <v>59</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="13"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="12"/>
       <c r="S45" s="13"/>
-      <c r="T45" s="16"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="13"/>
+      <c r="U45" s="16"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -3037,18 +3201,19 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="13"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="12"/>
       <c r="S46" s="13"/>
-      <c r="T46" s="16"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T46" s="13"/>
+      <c r="U46" s="16"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -3056,18 +3221,19 @@
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="13"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="13"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="12"/>
       <c r="S47" s="13"/>
-      <c r="T47" s="16"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T47" s="13"/>
+      <c r="U47" s="16"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -3075,18 +3241,19 @@
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="13"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="13"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="12"/>
       <c r="S48" s="13"/>
-      <c r="T48" s="16"/>
-    </row>
-    <row r="49" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T48" s="13"/>
+      <c r="U48" s="16"/>
+    </row>
+    <row r="49" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -3094,35 +3261,69 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="8"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
-      <c r="Q49" s="8"/>
+      <c r="Q49" s="6"/>
       <c r="R49" s="8"/>
       <c r="S49" s="8"/>
-      <c r="T49" s="7"/>
-    </row>
-    <row r="51" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="K51" s="1"/>
-    </row>
-    <row r="53" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="K53" s="10"/>
-    </row>
-    <row r="54" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="K54" s="10"/>
-    </row>
-    <row r="55" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="4:20" x14ac:dyDescent="0.2">
-      <c r="K56" s="10"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="51" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="L51" s="1"/>
+    </row>
+    <row r="53" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="L53" s="10"/>
+    </row>
+    <row r="54" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="L54" s="10"/>
+    </row>
+    <row r="55" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="L55" s="10"/>
+    </row>
+    <row r="56" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="L56" s="10"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="38"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="38"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="38"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="38"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="38"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="38"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="38"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="38"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="38"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="38"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>